--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.13819999999999</v>
+        <v>-22.139</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.59260000000001</v>
+        <v>-21.5877</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.10149999999999</v>
+        <v>-14.16499999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.11080000000001</v>
+        <v>-22.10020000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.2561</v>
+        <v>-20.19219999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.267</v>
+        <v>-12.1812</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.7149</v>
+        <v>-11.6268</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.09469999999998</v>
+        <v>-19.95949999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.2871</v>
+        <v>-13.47399999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.45709999999998</v>
+        <v>-21.57519999999998</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.20029999999997</v>
+        <v>-21.18959999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.17199999999999</v>
+        <v>-12.2965</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.48349999999999</v>
+        <v>-13.53209999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.92959999999997</v>
+        <v>-20.75329999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.49370000000001</v>
+        <v>-13.3351</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-13.52880000000001</v>
+        <v>-13.4066</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.0653</v>
+        <v>-19.9843</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-14.16229999999999</v>
+        <v>-13.96439999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.99299999999999</v>
+        <v>-11.9996</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.31900000000001</v>
+        <v>-13.24290000000001</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.6673</v>
+        <v>-10.6379</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.99939999999999</v>
+        <v>-21.98439999999999</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-12.8688</v>
+        <v>-12.68299999999999</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.55140000000001</v>
+        <v>-13.4969</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.18550000000002</v>
+        <v>-22.17140000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.2053</v>
+        <v>-14.3953</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.48230000000001</v>
+        <v>-22.42610000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.88479999999998</v>
+        <v>-21.87619999999999</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.58909999999999</v>
+        <v>-21.6085</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.92229999999999</v>
+        <v>-11.9309</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1429,7 +1429,7 @@
         <v>4.58</v>
       </c>
       <c r="C71" t="n">
-        <v>-11.17060000000001</v>
+        <v>-11.1282</v>
       </c>
       <c r="D71" t="n">
         <v>-7.44</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.6591</v>
+        <v>-20.634</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8476</v>
+        <v>-21.9176</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.8704</v>
+        <v>-13.89139999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.00200000000001</v>
+        <v>-12.99520000000001</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.6848</v>
+        <v>-13.5628</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.63499999999998</v>
+        <v>-20.46169999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.16660000000002</v>
+        <v>-21.25849999999999</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.23270000000001</v>
+        <v>-22.20870000000001</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.7359</v>
+        <v>-13.48639999999999</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.945</v>
+        <v>-21.89179999999999</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
